--- a/campos_info/tabla_parametros.xlsx
+++ b/campos_info/tabla_parametros.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparaciones sin viento" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparaciones con viento" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -52,8 +53,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Julio Waissman Vilanova</author>
+  </authors>
+  <commentList>
+    <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Julio Waissman Vilanova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
   <si>
     <t>std_beta</t>
   </si>
@@ -120,12 +155,15 @@
   <si>
     <t>Con compensación</t>
   </si>
+  <si>
+    <t>k_viento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,8 +213,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +241,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,19 +281,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -253,12 +331,50 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A5" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:AJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -601,42 +717,42 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
@@ -675,28 +791,28 @@
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -723,468 +839,468 @@
       <c r="AB2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="6" customFormat="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:36" s="5" customFormat="1">
+      <c r="A3" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.310716017978104</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>1.0035870672941299E-3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>1.9252548306334001</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>9</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.55154900730551204</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>1.0036670627047799E-3</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>1.9227509152821101</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>8</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>0.20080122180298501</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>1.00279570419635E-3</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>1.94337019769022</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>9</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>0.18070116668793901</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>1.00412922540563E-3</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <v>1.9109701165791499</v>
       </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
         <v>5.9217118796124502E-3</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="4">
         <v>2.28675473932583E-4</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="4">
         <v>1.3253922331444401</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="4">
         <v>2</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="4">
         <v>7.1436835590226205E-2</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="4">
         <v>2.0421752576511401E-4</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="4">
         <v>1.2985416057418699</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="4">
         <v>1</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="4">
         <v>2.1668994741183601E-2</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="4">
         <v>3.1639852480555602E-4</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AF3" s="4">
         <v>1.4560424341872</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AG3" s="4">
         <v>1</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" s="4">
         <v>2.2495871996290499E-2</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="4">
         <v>1.9030792275643999E-4</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="4">
         <v>1.4391519950701399</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="6" customFormat="1">
-      <c r="A4" s="5">
+    <row r="4" spans="1:36" s="5" customFormat="1">
+      <c r="A4" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.403107530469349</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>3.0253139460378899E-3</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>1.99726880516226</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>8</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.34563308735732401</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>3.0250092694033702E-3</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>1.99805451009637</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>9</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>0.402030863172194</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>3.02567149719389E-3</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>1.9769156866247299</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>7</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>0.22686019085640499</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>3.0255559298686301E-3</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <v>2.0177319095533601</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <v>4</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>6.7352952195300797E-2</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>6.7707660095909497E-4</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>1.31400058186775</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="4">
         <v>1</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="4">
         <v>6.9318032089577E-2</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <v>6.10880062151757E-4</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="4">
         <v>1.28495317604688</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="4">
         <v>2</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="4">
         <v>2.6055885831034301E-2</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="4">
         <v>9.2515956686726704E-4</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="4">
         <v>1.4725529761562</v>
       </c>
-      <c r="AG4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="5">
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
         <v>1.8951525746004299E-4</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4" s="4">
         <v>5.6473178245510403E-4</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AJ4" s="4">
         <v>1.3738332008121701</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:36" s="11" customFormat="1">
+      <c r="A5" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>10</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0.39897945994080197</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>5.0053975910419896E-3</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>1.9256017990990399</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>10</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>0.41848423420539299</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>5.0018680806297898E-3</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>1.9253024154184999</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>8</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>0.41090164544790297</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>5.01541685859388E-3</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>1.92533964410348</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>8</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <v>0.31242867649911299</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <v>5.0017724943743199E-3</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>1.92582466262911</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="10">
         <v>1</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <v>6.1167178668164899E-3</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="10">
         <v>1.1034654035812299E-3</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="10">
         <v>1.2891081340630901</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="10">
         <v>1</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="10">
         <v>3.5530124356434101E-2</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="10">
         <v>9.8846395972370001E-4</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="10">
         <v>1.2664740491372699</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="10">
         <v>3</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AD5" s="10">
         <v>8.0411656015663302E-2</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="10">
         <v>1.5222145927970901E-3</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="10">
         <v>1.4224877861104399</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="10">
         <v>1</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="10">
         <v>1.93814188557337E-2</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5" s="10">
         <v>9.1934283548306096E-4</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AJ5" s="10">
         <v>1.3616218201002199</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="6" customFormat="1">
-      <c r="A6" s="5">
+    <row r="6" spans="1:36" s="5" customFormat="1">
+      <c r="A6" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.43201729024527502</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>1.00615133284202E-2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>2.0519970735768198</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>10</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.30787393086555098</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>1.00633542288198E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>2.0552106591177099</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>10</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>0.42162930202106902</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>1.00371804564416E-2</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>2.0374219204158002</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>6</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>0.31324101035671897</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>1.0085937070505599E-2</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <v>2.06328040800451</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4">
         <v>1</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <v>7.7368195209954402E-3</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <v>2.2312360743039698E-3</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="4">
         <v>1.3135297883339201</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="4">
         <v>2</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="4">
         <v>1.6854704311271101E-2</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="4">
         <v>2.0031002845156201E-3</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="4">
         <v>1.29519828730229</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="4">
         <v>2</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="4">
         <v>6.6537954681580594E-2</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="4">
         <v>3.08857085384962E-3</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF6" s="4">
         <v>1.4663259492352401</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AG6" s="4">
         <v>1</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AH6" s="4">
         <v>1.0989160582993601E-2</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="4">
         <v>1.8416891999014601E-3</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AJ6" s="4">
         <v>1.3724549499784799</v>
       </c>
     </row>
@@ -1408,113 +1524,113 @@
         <v>0.94951830398692905</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="10" customFormat="1">
-      <c r="A9" s="9">
+    <row r="9" spans="1:36" s="9" customFormat="1">
+      <c r="A9" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
         <v>1.46248752723197E-3</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>4.2761783615247601E-3</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>1.29981740511251</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>2.01067735065956E-2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>4.2761783614368703E-3</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>1.2998174049553399</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>1</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>8.5316081890550299E-3</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>4.2761783615506898E-3</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>1.29981740506941</v>
       </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
         <v>2.2214095407482701E-3</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <v>4.2761783615378399E-3</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="8">
         <v>1.2998174050558799</v>
       </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9">
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8">
         <v>2.75206553627748E-3</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="8">
         <v>6.3015274140375797E-4</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="8">
         <v>0.98909887364827798</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="8">
         <v>2</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="8">
         <v>9.1537062138608905E-2</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="8">
         <v>6.2320885843315603E-4</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="8">
         <v>0.99782995656428997</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="8">
         <v>4</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AD9" s="8">
         <v>0.14728547851357701</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AE9" s="8">
         <v>7.6712140015183501E-4</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AF9" s="8">
         <v>0.99307525012995701</v>
       </c>
-      <c r="AG9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="9">
+      <c r="AG9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8">
         <v>9.7333622777429898E-4</v>
       </c>
-      <c r="AI9" s="9">
+      <c r="AI9" s="8">
         <v>5.1533120368809401E-4</v>
       </c>
-      <c r="AJ9" s="9">
+      <c r="AJ9" s="8">
         <v>1.01499715500819</v>
       </c>
     </row>
@@ -1534,7 +1650,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2.8446036541515499E-5</v>
       </c>
       <c r="G10" s="1">
@@ -1570,7 +1686,7 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>3.3724576902353103E-5</v>
       </c>
       <c r="S10" s="1">
@@ -1628,1323 +1744,1323 @@
         <v>0.94420548035737295</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="8" customFormat="1">
-      <c r="A11" s="7">
-        <v>0</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:36" s="7" customFormat="1">
+      <c r="A11" s="6">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6">
         <v>1E-3</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.38254595908653699</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>6.5632620495447195E-4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>1.1850050651246</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>8</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>0.111690102339909</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>6.669985152219E-4</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>1.2033978906910101</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>9</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>0.46438460756590899</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>5.45222690029086E-4</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>1.1724081222493199</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>7</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <v>0.14255417994156699</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>7.5771804564957104E-4</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>1.2133333966106301</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>8</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <v>0.4616143937503</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <v>1.8957053101137399E-4</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <v>0.99327356998674698</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="6">
         <v>8</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z11" s="6">
         <v>0.38421562138034598</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="6">
         <v>1.49978121978748E-4</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="6">
         <v>0.96628429831062201</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AC11" s="6">
         <v>8</v>
       </c>
-      <c r="AD11" s="7">
+      <c r="AD11" s="6">
         <v>0.228562580642513</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AE11" s="6">
         <v>3.11742873315793E-4</v>
       </c>
-      <c r="AF11" s="7">
+      <c r="AF11" s="6">
         <v>1.1309548925245601</v>
       </c>
-      <c r="AG11" s="7">
+      <c r="AG11" s="6">
         <v>9</v>
       </c>
-      <c r="AH11" s="7">
+      <c r="AH11" s="6">
         <v>0.56413924495092804</v>
       </c>
-      <c r="AI11" s="7">
+      <c r="AI11" s="6">
         <v>1.5163609832330999E-4</v>
       </c>
-      <c r="AJ11" s="7">
+      <c r="AJ11" s="6">
         <v>1.10133176018351</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="8" customFormat="1">
-      <c r="A12" s="7">
-        <v>0</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="12" spans="1:36" s="7" customFormat="1">
+      <c r="A12" s="6">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>7.0081388069193895E-2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>1.9285592453417799E-3</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>1.1659898908978099</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>9.3619417912020206E-2</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>1.9601553567178301E-3</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>1.18334748090502</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>4</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>0.106396122300427</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>1.60462814761137E-3</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>1.14856078249247</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>2</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <v>3.8067702449268402E-2</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <v>2.2236021387080302E-3</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="6">
         <v>1.1981754659972501</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>9</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="6">
         <v>0.28612956981602</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <v>5.5246532580372203E-4</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="6">
         <v>0.99617065124231596</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="6">
         <v>9</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="6">
         <v>0.31551459314497199</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <v>4.36799772386527E-4</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="6">
         <v>0.975314101326753</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="6">
         <v>5</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="6">
         <v>0.25483656108453701</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE12" s="6">
         <v>9.1257891525751099E-4</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="6">
         <v>1.12937423618654</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="6">
         <v>6</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="6">
         <v>0.122873247396899</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI12" s="6">
         <v>4.40344172903046E-4</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AJ12" s="6">
         <v>1.1187265167370599</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="14" customFormat="1">
-      <c r="A13" s="13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="13">
+    <row r="13" spans="1:36" s="13" customFormat="1">
+      <c r="A13" s="12">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
         <v>6</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>0.106974614562226</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>3.3608191708443102E-3</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>1.19749041243739</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>5</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>7.3876152980506302E-2</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>3.4154772111622501E-3</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>1.21636437958424</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>9</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>0.26620835767199602</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="12">
         <v>2.79233974156653E-3</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="12">
         <v>1.18283968971196</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="12">
         <v>1</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="12">
         <v>2.6668878794624901E-2</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="12">
         <v>3.87911823941875E-3</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="12">
         <v>1.22894085660965</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="12">
         <v>9</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="12">
         <v>0.57791619180406095</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="12">
         <v>9.6968754823551699E-4</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="12">
         <v>1.0070494094700899</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="12">
         <v>9</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="12">
         <v>0.55830845898097903</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="12">
         <v>7.6720055571952704E-4</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13" s="12">
         <v>0.98084894327243199</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="12">
         <v>8</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AD13" s="12">
         <v>0.33073488323908401</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AE13" s="12">
         <v>1.5944976555264999E-3</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AF13" s="12">
         <v>1.15157362785655</v>
       </c>
-      <c r="AG13" s="13">
+      <c r="AG13" s="12">
         <v>9</v>
       </c>
-      <c r="AH13" s="13">
+      <c r="AH13" s="12">
         <v>0.468112865001791</v>
       </c>
-      <c r="AI13" s="13">
+      <c r="AI13" s="12">
         <v>7.7534308741809398E-4</v>
       </c>
-      <c r="AJ13" s="13">
+      <c r="AJ13" s="12">
         <v>1.12148026379649</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="8" customFormat="1">
-      <c r="A14" s="7">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="14" spans="1:36" s="7" customFormat="1">
+      <c r="A14" s="6">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6">
         <v>0.01</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
         <v>9</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>0.47308249619912401</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>6.5641813654397797E-3</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>1.27118689258476</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>9</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>0.228633210728627</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>6.66839827545613E-3</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>1.2929949165007399</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>9</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>0.40023796092800401</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>5.4533415395825796E-3</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>1.25443900532955</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>6</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="6">
         <v>0.20801682543613201</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <v>7.5753398763449501E-3</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <v>1.30681283225932</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="6">
         <v>9</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="6">
         <v>0.30090695376715498</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="6">
         <v>1.90812201957227E-3</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <v>1.0480918297442801</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="6">
         <v>9</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="6">
         <v>0.36062783245819902</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="6">
         <v>1.51562963499169E-3</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="6">
         <v>1.0195551350411001</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="6">
         <v>6</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AD14" s="6">
         <v>0.32724612930654201</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AE14" s="6">
         <v>3.12624825643872E-3</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AF14" s="6">
         <v>1.21170425573963</v>
       </c>
-      <c r="AG14" s="7">
+      <c r="AG14" s="6">
         <v>8</v>
       </c>
-      <c r="AH14" s="7">
+      <c r="AH14" s="6">
         <v>0.37731136889775002</v>
       </c>
-      <c r="AI14" s="7">
+      <c r="AI14" s="6">
         <v>1.51997933164198E-3</v>
       </c>
-      <c r="AJ14" s="7">
+      <c r="AJ14" s="6">
         <v>1.1637304812768201</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="6" customFormat="1">
-      <c r="A15" s="5">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
+    <row r="15" spans="1:36" s="5" customFormat="1">
+      <c r="A15" s="4">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
         <v>1E-3</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
         <v>9</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>0.337296516414054</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>1.12047096860447E-3</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>1.81526683308301</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>7</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>0.209533140937781</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>1.1210667861728499E-3</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>1.8361914526923599</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>6</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>0.197855411876103</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="4">
         <v>1.2116112269476701E-3</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
         <v>1.9171055593145201</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="4">
         <v>9</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <v>0.36791452945255998</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="4">
         <v>1.02516386383159E-3</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="4">
         <v>1.71136857188226</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="4">
         <v>3</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="4">
         <v>8.5014959705636703E-2</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="4">
         <v>2.3652765124057001E-4</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="4">
         <v>1.23069665596984</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="4">
         <v>3</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="4">
         <v>4.1974676067031001E-2</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="4">
         <v>2.21764006432983E-4</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="4">
         <v>1.2049107128510299</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AC15" s="4">
         <v>1</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AD15" s="4">
         <v>1.6760576033662201E-2</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AE15" s="4">
         <v>2.5910477063828498E-4</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AF15" s="4">
         <v>1.34888524702954</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AG15" s="4">
         <v>4</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AH15" s="4">
         <v>0.101681273913326</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AI15" s="4">
         <v>2.4328275536659999E-4</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AJ15" s="4">
         <v>1.1896545900987101</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="6" customFormat="1">
-      <c r="A16" s="5">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
+    <row r="16" spans="1:36" s="5" customFormat="1">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <v>7</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>0.26562196746113698</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>3.3981286018189599E-3</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>1.90877635939006</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>8</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>0.22831086327323699</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>3.3988627538378401E-3</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>1.93110051612288</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>7</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>0.21035969446637501</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <v>3.66231949108917E-3</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <v>2.0460756081011602</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <v>6</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <v>0.14370925152200401</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
         <v>3.1215546289275801E-3</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="4">
         <v>1.76917966451472</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="4">
         <v>2</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="4">
         <v>2.4628569524145699E-2</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="4">
         <v>7.1814258196045298E-4</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16" s="4">
         <v>1.31531009647908</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="4">
         <v>2</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z16" s="4">
         <v>3.95737186916598E-2</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="4">
         <v>6.7416917636488902E-4</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="4">
         <v>1.2831798551184199</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AC16" s="4">
         <v>1</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AD16" s="4">
         <v>8.5652124944042007E-3</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AE16" s="4">
         <v>7.8732832795905304E-4</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AF16" s="4">
         <v>1.4387634405487899</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AG16" s="4">
         <v>2</v>
       </c>
-      <c r="AH16" s="5">
+      <c r="AH16" s="4">
         <v>4.5335574184976198E-2</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AI16" s="4">
         <v>7.3596388943704904E-4</v>
       </c>
-      <c r="AJ16" s="5">
+      <c r="AJ16" s="4">
         <v>1.2816967133714701</v>
       </c>
     </row>
-    <row r="17" spans="1:36" s="16" customFormat="1">
-      <c r="A17" s="15">
-        <v>0</v>
-      </c>
-      <c r="B17" s="15">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15">
+    <row r="17" spans="1:36" s="15" customFormat="1">
+      <c r="A17" s="14">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
         <v>10</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>0.394336986920378</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>5.7411991310385799E-3</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>1.8213166904668801</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <v>10</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>0.70493178873963203</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>5.7439096249953603E-3</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="14">
         <v>1.84237567231643</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="14">
         <v>10</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="14">
         <v>0.28929796229959398</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="14">
         <v>6.1705750940591201E-3</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="14">
         <v>1.92159655902349</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="14">
         <v>9</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="14">
         <v>0.37800546660300599</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="14">
         <v>5.2918426734783804E-3</v>
       </c>
-      <c r="T17" s="15">
+      <c r="T17" s="14">
         <v>1.71355158593901</v>
       </c>
-      <c r="U17" s="15">
+      <c r="U17" s="14">
         <v>6</v>
       </c>
-      <c r="V17" s="15">
+      <c r="V17" s="14">
         <v>0.158875241948016</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W17" s="14">
         <v>1.18558875433775E-3</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X17" s="14">
         <v>1.23882846198536</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y17" s="14">
         <v>1</v>
       </c>
-      <c r="Z17" s="15">
+      <c r="Z17" s="14">
         <v>3.4700943525876299E-2</v>
       </c>
-      <c r="AA17" s="15">
+      <c r="AA17" s="14">
         <v>1.1163162827615601E-3</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AB17" s="14">
         <v>1.2193983849782799</v>
       </c>
-      <c r="AC17" s="15">
+      <c r="AC17" s="14">
         <v>4</v>
       </c>
-      <c r="AD17" s="15">
+      <c r="AD17" s="14">
         <v>0.16359471596842501</v>
       </c>
-      <c r="AE17" s="15">
+      <c r="AE17" s="14">
         <v>1.31040456859041E-3</v>
       </c>
-      <c r="AF17" s="15">
+      <c r="AF17" s="14">
         <v>1.3628298790928099</v>
       </c>
-      <c r="AG17" s="15">
+      <c r="AG17" s="14">
         <v>5</v>
       </c>
-      <c r="AH17" s="15">
+      <c r="AH17" s="14">
         <v>8.47997492471394E-2</v>
       </c>
-      <c r="AI17" s="15">
+      <c r="AI17" s="14">
         <v>1.2008794371290901E-3</v>
       </c>
-      <c r="AJ17" s="15">
+      <c r="AJ17" s="14">
         <v>1.18797556692142</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="6" customFormat="1">
-      <c r="A18" s="5">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
+    <row r="18" spans="1:36" s="5" customFormat="1">
+      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
         <v>0.01</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <v>9</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.39525340120230201</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>1.1797268599355299E-2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>1.92622110868034</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>10</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>0.55875372646739596</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>1.17979750176938E-2</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>1.94927895348762</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>7</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>0.32198173349603298</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <v>1.2662148334144901E-2</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <v>2.0409305384949601</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <v>8</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <v>0.37589302871202301</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <v>1.08978722038513E-2</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="4">
         <v>1.80489240650123</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="4">
         <v>2</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <v>0.101594915500882</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="4">
         <v>2.4935535355266199E-3</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="4">
         <v>1.2637303729700899</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="4">
         <v>1</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="Z18" s="4">
         <v>6.76882276221627E-3</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="4">
         <v>2.3572902480432098E-3</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="4">
         <v>1.2447943781050099</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AC18" s="4">
         <v>2</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AD18" s="4">
         <v>0.11510940570311599</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AE18" s="4">
         <v>2.7586606238240601E-3</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AF18" s="4">
         <v>1.3793782826441401</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AG18" s="4">
         <v>1</v>
       </c>
-      <c r="AH18" s="5">
+      <c r="AH18" s="4">
         <v>1.8572355232978701E-2</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AI18" s="4">
         <v>2.5091892119303099E-3</v>
       </c>
-      <c r="AJ18" s="5">
+      <c r="AJ18" s="4">
         <v>1.22301607142834</v>
       </c>
     </row>
-    <row r="19" spans="1:36" s="10" customFormat="1">
-      <c r="A19" s="9">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
+    <row r="19" spans="1:36" s="9" customFormat="1">
+      <c r="A19" s="8">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>8.4290077938847102E-3</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>8.4199746890919103E-4</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>1.2807855730678399</v>
       </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
         <v>1.1236985377291199E-3</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>8.4199718472737297E-4</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>1.28078415383608</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>1</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>2.11714242552049E-2</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="8">
         <v>8.4199750077105498E-4</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="8">
         <v>1.28078573219866</v>
       </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
         <v>2.7993180914641599E-3</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="8">
         <v>8.4199749705308102E-4</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="8">
         <v>1.28078571361728</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="8">
         <v>7</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="8">
         <v>0.33380847974238498</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="8">
         <v>1.86007111481426E-4</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="8">
         <v>0.918453269470481</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="8">
         <v>10</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="Z19" s="8">
         <v>0.52378082581800101</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AA19" s="8">
         <v>1.7367146888331301E-4</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="8">
         <v>0.92683537095312996</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AC19" s="8">
         <v>10</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AD19" s="8">
         <v>0.49692581719029699</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AE19" s="8">
         <v>3.0585046978217999E-4</v>
       </c>
-      <c r="AF19" s="9">
+      <c r="AF19" s="8">
         <v>1.03332537354457</v>
       </c>
-      <c r="AG19" s="9">
+      <c r="AG19" s="8">
         <v>4</v>
       </c>
-      <c r="AH19" s="9">
+      <c r="AH19" s="8">
         <v>0.19502107021437901</v>
       </c>
-      <c r="AI19" s="9">
+      <c r="AI19" s="8">
         <v>1.1017659348935699E-4</v>
       </c>
-      <c r="AJ19" s="9">
+      <c r="AJ19" s="8">
         <v>1.02121538039906</v>
       </c>
     </row>
-    <row r="20" spans="1:36" s="10" customFormat="1">
-      <c r="A20" s="9">
-        <v>0</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
+    <row r="20" spans="1:36" s="9" customFormat="1">
+      <c r="A20" s="8">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
         <v>3.25410530829891E-3</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>2.4626143529774599E-3</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>1.23156525566869</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>2</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>4.1590857695977097E-2</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>2.4626143510685199E-3</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>1.2315652526662599</v>
       </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
         <v>4.3795361461417704E-3</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="8">
         <v>2.46261435280968E-3</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="8">
         <v>1.2315652553702801</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="8">
         <v>1</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="8">
         <v>8.1565527160179594E-3</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="8">
         <v>2.46261435273629E-3</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="8">
         <v>1.2315652552574501</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="8">
         <v>3</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="8">
         <v>0.18123511291153899</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="8">
         <v>5.36946989269233E-4</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X20" s="8">
         <v>0.912798002874604</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="8">
         <v>6</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="8">
         <v>0.213265125256173</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="8">
         <v>5.0028377106862596E-4</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="8">
         <v>0.925688656018399</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AC20" s="8">
         <v>8</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AD20" s="8">
         <v>0.46104513205390601</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AE20" s="8">
         <v>8.8745025683434895E-4</v>
       </c>
-      <c r="AF20" s="9">
+      <c r="AF20" s="8">
         <v>1.0186798769196801</v>
       </c>
-      <c r="AG20" s="9">
+      <c r="AG20" s="8">
         <v>3</v>
       </c>
-      <c r="AH20" s="9">
+      <c r="AH20" s="8">
         <v>0.181759040036649</v>
       </c>
-      <c r="AI20" s="9">
+      <c r="AI20" s="8">
         <v>3.17384762336263E-4</v>
       </c>
-      <c r="AJ20" s="9">
+      <c r="AJ20" s="8">
         <v>1.01910909020167</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="16" customFormat="1">
-      <c r="A21" s="15">
-        <v>0</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0</v>
-      </c>
-      <c r="D21" s="15">
+    <row r="21" spans="1:36" s="15" customFormat="1">
+      <c r="A21" s="14">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>1</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>1.11036488553611E-2</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>4.2813153235349202E-3</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>1.2828509467536</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <v>1</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <v>1.28156507455873E-2</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>4.2813153235214101E-3</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="14">
         <v>1.2828509467086899</v>
       </c>
-      <c r="M21" s="15">
-        <v>0</v>
-      </c>
-      <c r="N21" s="15">
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
         <v>6.8446899433831599E-3</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="14">
         <v>4.2813153235783698E-3</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="14">
         <v>1.2828509467640401</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="14">
         <v>1</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="14">
         <v>1.2314476044965701E-2</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21" s="14">
         <v>4.2813153235520601E-3</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="14">
         <v>1.28285094673744</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U21" s="14">
         <v>4</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="14">
         <v>0.201691282403272</v>
       </c>
-      <c r="W21" s="15">
+      <c r="W21" s="14">
         <v>9.4320344817072199E-4</v>
       </c>
-      <c r="X21" s="15">
+      <c r="X21" s="14">
         <v>0.926314495026756</v>
       </c>
-      <c r="Y21" s="15">
+      <c r="Y21" s="14">
         <v>6</v>
       </c>
-      <c r="Z21" s="15">
+      <c r="Z21" s="14">
         <v>0.39272507612083202</v>
       </c>
-      <c r="AA21" s="15">
+      <c r="AA21" s="14">
         <v>8.8203447543372501E-4</v>
       </c>
-      <c r="AB21" s="15">
+      <c r="AB21" s="14">
         <v>0.93946073774496697</v>
       </c>
-      <c r="AC21" s="15">
+      <c r="AC21" s="14">
         <v>6</v>
       </c>
-      <c r="AD21" s="15">
+      <c r="AD21" s="14">
         <v>0.40469769397420402</v>
       </c>
-      <c r="AE21" s="15">
+      <c r="AE21" s="14">
         <v>1.55348829029621E-3</v>
       </c>
-      <c r="AF21" s="15">
+      <c r="AF21" s="14">
         <v>1.0446178694467301</v>
       </c>
-      <c r="AG21" s="15">
+      <c r="AG21" s="14">
         <v>9</v>
       </c>
-      <c r="AH21" s="15">
+      <c r="AH21" s="14">
         <v>0.374555949744941</v>
       </c>
-      <c r="AI21" s="15">
+      <c r="AI21" s="14">
         <v>5.5653078955437496E-4</v>
       </c>
-      <c r="AJ21" s="15">
+      <c r="AJ21" s="14">
         <v>1.0327947973303999</v>
       </c>
     </row>
-    <row r="22" spans="1:36" s="10" customFormat="1">
-      <c r="A22" s="9">
-        <v>0</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
+    <row r="22" spans="1:36" s="9" customFormat="1">
+      <c r="A22" s="8">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
         <v>0.01</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>3.6237913514236199E-2</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>8.6386842361217894E-3</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>1.2785405955512601</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>1</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>2.5433401246222401E-2</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>8.6386842256723096E-3</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>1.2785405906307701</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>3</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <v>2.4566818871428201E-2</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="8">
         <v>8.6386842352898004E-3</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="8">
         <v>1.2785405951473601</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="8">
         <v>1</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="8">
         <v>1.8671174693599999E-2</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="8">
         <v>8.6386842353969196E-3</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="8">
         <v>1.2785405951970901</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="8">
         <v>3</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="8">
         <v>0.142893204946032</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="8">
         <v>1.92761942093935E-3</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="8">
         <v>0.92108816597889098</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="8">
         <v>5</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22" s="8">
         <v>0.18509992914043499</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="8">
         <v>1.80909771799218E-3</v>
       </c>
-      <c r="AB22" s="9">
+      <c r="AB22" s="8">
         <v>0.93702242677339398</v>
       </c>
-      <c r="AC22" s="9">
+      <c r="AC22" s="8">
         <v>8</v>
       </c>
-      <c r="AD22" s="9">
+      <c r="AD22" s="8">
         <v>0.36187460026724999</v>
       </c>
-      <c r="AE22" s="9">
+      <c r="AE22" s="8">
         <v>3.1569417586801199E-3</v>
       </c>
-      <c r="AF22" s="9">
+      <c r="AF22" s="8">
         <v>1.0391966067093099</v>
       </c>
-      <c r="AG22" s="9">
+      <c r="AG22" s="8">
         <v>1</v>
       </c>
-      <c r="AH22" s="9">
+      <c r="AH22" s="8">
         <v>8.4760634530354498E-2</v>
       </c>
-      <c r="AI22" s="9">
+      <c r="AI22" s="8">
         <v>1.1430312202197999E-3</v>
       </c>
-      <c r="AJ22" s="9">
+      <c r="AJ22" s="8">
         <v>0.99296427229975504</v>
       </c>
     </row>
@@ -2962,4 +3078,2448 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="22" customFormat="1">
+      <c r="A3" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B3" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>10</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0.39897945994080197</v>
+      </c>
+      <c r="H3" s="21">
+        <v>5.0053975910419896E-3</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1.9256017990990399</v>
+      </c>
+      <c r="J3" s="21">
+        <v>10</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0.41848423420539299</v>
+      </c>
+      <c r="L3" s="21">
+        <v>5.0018680806297898E-3</v>
+      </c>
+      <c r="M3" s="21">
+        <v>1.9253024154184999</v>
+      </c>
+      <c r="N3" s="21">
+        <v>8</v>
+      </c>
+      <c r="O3" s="21">
+        <v>0.41090164544790297</v>
+      </c>
+      <c r="P3" s="21">
+        <v>5.01541685859388E-3</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>1.92533964410348</v>
+      </c>
+      <c r="R3" s="21">
+        <v>8</v>
+      </c>
+      <c r="S3" s="21">
+        <v>0.31242867649911299</v>
+      </c>
+      <c r="T3" s="21">
+        <v>5.0017724943743199E-3</v>
+      </c>
+      <c r="U3" s="21">
+        <v>1.92582466262911</v>
+      </c>
+      <c r="V3" s="21">
+        <v>1</v>
+      </c>
+      <c r="W3" s="21">
+        <v>6.1167178668164899E-3</v>
+      </c>
+      <c r="X3" s="21">
+        <v>1.1034654035812299E-3</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>1.2891081340630901</v>
+      </c>
+      <c r="Z3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="21">
+        <v>3.5530124356434101E-2</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>9.8846395972370001E-4</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>1.2664740491372699</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="21">
+        <v>8.0411656015663302E-2</v>
+      </c>
+      <c r="AF3" s="21">
+        <v>1.5222145927970901E-3</v>
+      </c>
+      <c r="AG3" s="21">
+        <v>1.4224877861104399</v>
+      </c>
+      <c r="AH3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="21">
+        <v>1.93814188557337E-2</v>
+      </c>
+      <c r="AJ3" s="21">
+        <v>9.1934283548306096E-4</v>
+      </c>
+      <c r="AK3" s="21">
+        <v>1.3616218201002199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="22" customFormat="1">
+      <c r="A4" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1.46248752723197E-3</v>
+      </c>
+      <c r="H4" s="21">
+        <v>4.2761783615247601E-3</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1.29981740511251</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2</v>
+      </c>
+      <c r="K4" s="21">
+        <v>2.01067735065956E-2</v>
+      </c>
+      <c r="L4" s="21">
+        <v>4.2761783614368703E-3</v>
+      </c>
+      <c r="M4" s="21">
+        <v>1.2998174049553399</v>
+      </c>
+      <c r="N4" s="21">
+        <v>1</v>
+      </c>
+      <c r="O4" s="21">
+        <v>8.5316081890550299E-3</v>
+      </c>
+      <c r="P4" s="21">
+        <v>4.2761783615506898E-3</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>1.29981740506941</v>
+      </c>
+      <c r="R4" s="21">
+        <v>0</v>
+      </c>
+      <c r="S4" s="21">
+        <v>2.2214095407482701E-3</v>
+      </c>
+      <c r="T4" s="21">
+        <v>4.2761783615378399E-3</v>
+      </c>
+      <c r="U4" s="21">
+        <v>1.2998174050558799</v>
+      </c>
+      <c r="V4" s="21">
+        <v>0</v>
+      </c>
+      <c r="W4" s="21">
+        <v>2.75206553627748E-3</v>
+      </c>
+      <c r="X4" s="21">
+        <v>6.3015274140375797E-4</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>0.98909887364827798</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>9.1537062138608905E-2</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>6.2320885843315603E-4</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>0.99782995656428997</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="21">
+        <v>0.14728547851357701</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>7.6712140015183501E-4</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>0.99307525012995701</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="21">
+        <v>9.7333622777429898E-4</v>
+      </c>
+      <c r="AJ4" s="21">
+        <v>5.1533120368809401E-4</v>
+      </c>
+      <c r="AK4" s="21">
+        <v>1.01499715500819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="22" customFormat="1">
+      <c r="A5" s="21">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>6</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.106974614562226</v>
+      </c>
+      <c r="H5" s="21">
+        <v>3.3608191708443102E-3</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1.19749041243739</v>
+      </c>
+      <c r="J5" s="21">
+        <v>5</v>
+      </c>
+      <c r="K5" s="21">
+        <v>7.3876152980506302E-2</v>
+      </c>
+      <c r="L5" s="21">
+        <v>3.4154772111622501E-3</v>
+      </c>
+      <c r="M5" s="21">
+        <v>1.21636437958424</v>
+      </c>
+      <c r="N5" s="21">
+        <v>9</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0.26620835767199602</v>
+      </c>
+      <c r="P5" s="21">
+        <v>2.79233974156653E-3</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>1.18283968971196</v>
+      </c>
+      <c r="R5" s="21">
+        <v>1</v>
+      </c>
+      <c r="S5" s="21">
+        <v>2.6668878794624901E-2</v>
+      </c>
+      <c r="T5" s="21">
+        <v>3.87911823941875E-3</v>
+      </c>
+      <c r="U5" s="21">
+        <v>1.22894085660965</v>
+      </c>
+      <c r="V5" s="21">
+        <v>9</v>
+      </c>
+      <c r="W5" s="21">
+        <v>0.57791619180406095</v>
+      </c>
+      <c r="X5" s="21">
+        <v>9.6968754823551699E-4</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>1.0070494094700899</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>0.55830845898097903</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>7.6720055571952704E-4</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>0.98084894327243199</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="21">
+        <v>0.33073488323908401</v>
+      </c>
+      <c r="AF5" s="21">
+        <v>1.5944976555264999E-3</v>
+      </c>
+      <c r="AG5" s="21">
+        <v>1.15157362785655</v>
+      </c>
+      <c r="AH5" s="21">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="21">
+        <v>0.468112865001791</v>
+      </c>
+      <c r="AJ5" s="21">
+        <v>7.7534308741809398E-4</v>
+      </c>
+      <c r="AK5" s="21">
+        <v>1.12148026379649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="22" customFormat="1">
+      <c r="A6" s="21">
+        <v>0</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>10</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.394336986920378</v>
+      </c>
+      <c r="H6" s="21">
+        <v>5.7411991310385799E-3</v>
+      </c>
+      <c r="I6" s="21">
+        <v>1.8213166904668801</v>
+      </c>
+      <c r="J6" s="21">
+        <v>10</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0.70493178873963203</v>
+      </c>
+      <c r="L6" s="21">
+        <v>5.7439096249953603E-3</v>
+      </c>
+      <c r="M6" s="21">
+        <v>1.84237567231643</v>
+      </c>
+      <c r="N6" s="21">
+        <v>10</v>
+      </c>
+      <c r="O6" s="21">
+        <v>0.28929796229959398</v>
+      </c>
+      <c r="P6" s="21">
+        <v>6.1705750940591201E-3</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>1.92159655902349</v>
+      </c>
+      <c r="R6" s="21">
+        <v>9</v>
+      </c>
+      <c r="S6" s="21">
+        <v>0.37800546660300599</v>
+      </c>
+      <c r="T6" s="21">
+        <v>5.2918426734783804E-3</v>
+      </c>
+      <c r="U6" s="21">
+        <v>1.71355158593901</v>
+      </c>
+      <c r="V6" s="21">
+        <v>6</v>
+      </c>
+      <c r="W6" s="21">
+        <v>0.158875241948016</v>
+      </c>
+      <c r="X6" s="21">
+        <v>1.18558875433775E-3</v>
+      </c>
+      <c r="Y6" s="21">
+        <v>1.23882846198536</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>3.4700943525876299E-2</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>1.1163162827615601E-3</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>1.2193983849782799</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="21">
+        <v>0.16359471596842501</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>1.31040456859041E-3</v>
+      </c>
+      <c r="AG6" s="21">
+        <v>1.3628298790928099</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="21">
+        <v>8.47997492471394E-2</v>
+      </c>
+      <c r="AJ6" s="21">
+        <v>1.2008794371290901E-3</v>
+      </c>
+      <c r="AK6" s="21">
+        <v>1.18797556692142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" s="22" customFormat="1">
+      <c r="A7" s="21">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1.11036488553611E-2</v>
+      </c>
+      <c r="H7" s="21">
+        <v>4.2813153235349202E-3</v>
+      </c>
+      <c r="I7" s="21">
+        <v>1.2828509467536</v>
+      </c>
+      <c r="J7" s="21">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1.28156507455873E-2</v>
+      </c>
+      <c r="L7" s="21">
+        <v>4.2813153235214101E-3</v>
+      </c>
+      <c r="M7" s="21">
+        <v>1.2828509467086899</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0</v>
+      </c>
+      <c r="O7" s="21">
+        <v>6.8446899433831599E-3</v>
+      </c>
+      <c r="P7" s="21">
+        <v>4.2813153235783698E-3</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>1.2828509467640401</v>
+      </c>
+      <c r="R7" s="21">
+        <v>1</v>
+      </c>
+      <c r="S7" s="21">
+        <v>1.2314476044965701E-2</v>
+      </c>
+      <c r="T7" s="21">
+        <v>4.2813153235520601E-3</v>
+      </c>
+      <c r="U7" s="21">
+        <v>1.28285094673744</v>
+      </c>
+      <c r="V7" s="21">
+        <v>4</v>
+      </c>
+      <c r="W7" s="21">
+        <v>0.201691282403272</v>
+      </c>
+      <c r="X7" s="21">
+        <v>9.4320344817072199E-4</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>0.926314495026756</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="21">
+        <v>0.39272507612083202</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>8.8203447543372501E-4</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>0.93946073774496697</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="21">
+        <v>0.40469769397420402</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>1.55348829029621E-3</v>
+      </c>
+      <c r="AG7" s="21">
+        <v>1.0446178694467301</v>
+      </c>
+      <c r="AH7" s="21">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="21">
+        <v>0.374555949744941</v>
+      </c>
+      <c r="AJ7" s="21">
+        <v>5.5653078955437496E-4</v>
+      </c>
+      <c r="AK7" s="21">
+        <v>1.0327947973303999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E8" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F8" s="17">
+        <v>9</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.38273950468933599</v>
+      </c>
+      <c r="H8" s="17">
+        <v>4.9626178788271802E-3</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1.97120606988812</v>
+      </c>
+      <c r="J8" s="17">
+        <v>10</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0.44090661890126298</v>
+      </c>
+      <c r="L8" s="17">
+        <v>4.96252878919504E-3</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1.97321527534454</v>
+      </c>
+      <c r="N8" s="17">
+        <v>8</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0.38183694113424799</v>
+      </c>
+      <c r="P8" s="17">
+        <v>4.9707697670362703E-3</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>1.9755569828584101</v>
+      </c>
+      <c r="R8" s="17">
+        <v>9</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0.297805832167437</v>
+      </c>
+      <c r="T8" s="17">
+        <v>4.95288778036947E-3</v>
+      </c>
+      <c r="U8" s="17">
+        <v>1.9647052380518599</v>
+      </c>
+      <c r="V8" s="17">
+        <v>1</v>
+      </c>
+      <c r="W8" s="17">
+        <v>1.1453897872471201E-2</v>
+      </c>
+      <c r="X8" s="17">
+        <v>1.18289826254132E-3</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>1.42027186291049</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>3.0937917428741201E-2</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>1.07770269914343E-3</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>1.4026942528205599</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>1.9120934354128601E-2</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>1.5393541255604799E-3</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>1.49327477777911</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="17">
+        <v>3.9566017094802099E-2</v>
+      </c>
+      <c r="AJ8" s="17">
+        <v>1.0219380133830399E-3</v>
+      </c>
+      <c r="AK8" s="17">
+        <v>1.51940422190848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.16074435629304301</v>
+      </c>
+      <c r="H9" s="17">
+        <v>4.5705186481550097E-3</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1.4084631781674199</v>
+      </c>
+      <c r="J9" s="17">
+        <v>5</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0.102288210864274</v>
+      </c>
+      <c r="L9" s="17">
+        <v>4.5697729836989397E-3</v>
+      </c>
+      <c r="M9" s="17">
+        <v>1.40725430236654</v>
+      </c>
+      <c r="N9" s="17">
+        <v>9</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0.294863640343627</v>
+      </c>
+      <c r="P9" s="17">
+        <v>4.5604183375724996E-3</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>1.3999847787247199</v>
+      </c>
+      <c r="R9" s="17">
+        <v>5</v>
+      </c>
+      <c r="S9" s="17">
+        <v>9.8273551358556102E-2</v>
+      </c>
+      <c r="T9" s="17">
+        <v>4.5800914213803001E-3</v>
+      </c>
+      <c r="U9" s="17">
+        <v>1.4160147387706601</v>
+      </c>
+      <c r="V9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="20">
+        <v>8.1749695383696297E-16</v>
+      </c>
+      <c r="X9" s="17">
+        <v>8.5205865766723799E-4</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>1.2867758215367999</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>1.77042810669163E-15</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>8.3896445386617499E-4</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>1.2963218698071399</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>3.8994944934914298E-9</v>
+      </c>
+      <c r="AF9" s="17">
+        <v>9.7383890810090305E-4</v>
+      </c>
+      <c r="AG9" s="17">
+        <v>1.23298226393065</v>
+      </c>
+      <c r="AH9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="20">
+        <v>7.9625548906568904E-6</v>
+      </c>
+      <c r="AJ9" s="17">
+        <v>7.4850544472936998E-4</v>
+      </c>
+      <c r="AK9" s="17">
+        <v>1.3892044757355799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="17">
+        <v>0</v>
+      </c>
+      <c r="B10" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F10" s="17">
+        <v>7</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.167704191520792</v>
+      </c>
+      <c r="H10" s="17">
+        <v>3.2981966355347002E-3</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1.2909098668668599</v>
+      </c>
+      <c r="J10" s="17">
+        <v>6</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0.19698550575019599</v>
+      </c>
+      <c r="L10" s="17">
+        <v>3.3463938883675701E-3</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1.3086173973646</v>
+      </c>
+      <c r="N10" s="17">
+        <v>5</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0.117730315467337</v>
+      </c>
+      <c r="P10" s="17">
+        <v>2.76741965384566E-3</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>1.2983021136985</v>
+      </c>
+      <c r="R10" s="17">
+        <v>6</v>
+      </c>
+      <c r="S10" s="17">
+        <v>0.13881180472144999</v>
+      </c>
+      <c r="T10" s="17">
+        <v>3.7814201573883898E-3</v>
+      </c>
+      <c r="U10" s="17">
+        <v>1.3098668589310301</v>
+      </c>
+      <c r="V10" s="17">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
+        <v>1.12304885781541E-3</v>
+      </c>
+      <c r="X10" s="17">
+        <v>1.09330386373374E-3</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>1.26369972131117</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>1.13893238722662E-5</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>9.1262000983539796E-4</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>1.2893322129967899</v>
+      </c>
+      <c r="AD10" s="17">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>6.6362115325036802E-2</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>1.6238474385140899E-3</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>1.3005031585846401</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>1.37581234247277E-2</v>
+      </c>
+      <c r="AJ10" s="17">
+        <v>9.0806740529122997E-4</v>
+      </c>
+      <c r="AK10" s="17">
+        <v>1.4770371999243399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="17">
+        <v>0</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F11" s="17">
+        <v>9</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.33902965004316599</v>
+      </c>
+      <c r="H11" s="17">
+        <v>5.5457262337239004E-3</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1.7818716922008699</v>
+      </c>
+      <c r="J11" s="17">
+        <v>6</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0.28743603846110899</v>
+      </c>
+      <c r="L11" s="17">
+        <v>5.5484690210048301E-3</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1.80340712395503</v>
+      </c>
+      <c r="N11" s="17">
+        <v>9</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0.285880983210406</v>
+      </c>
+      <c r="P11" s="17">
+        <v>5.9962152086758301E-3</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>1.87239513782878</v>
+      </c>
+      <c r="R11" s="17">
+        <v>7</v>
+      </c>
+      <c r="S11" s="17">
+        <v>0.192594816053027</v>
+      </c>
+      <c r="T11" s="17">
+        <v>5.0744893841753501E-3</v>
+      </c>
+      <c r="U11" s="17">
+        <v>1.68397416924457</v>
+      </c>
+      <c r="V11" s="17">
+        <v>1</v>
+      </c>
+      <c r="W11" s="17">
+        <v>5.19002960713991E-3</v>
+      </c>
+      <c r="X11" s="17">
+        <v>1.27411288241218E-3</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>1.31690203577901</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>3.42211628838424E-6</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>1.20906689487382E-3</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>1.29062996959179</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>2.3428875846826101E-2</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>1.35845880520125E-3</v>
+      </c>
+      <c r="AG11" s="17">
+        <v>1.39794696871433</v>
+      </c>
+      <c r="AH11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="17">
+        <v>1.2191129223476E-4</v>
+      </c>
+      <c r="AJ11" s="17">
+        <v>1.3113172752598199E-3</v>
+      </c>
+      <c r="AK11" s="17">
+        <v>1.2933407355091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="17">
+        <v>0</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F12" s="17">
+        <v>7</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.15275370988150899</v>
+      </c>
+      <c r="H12" s="17">
+        <v>4.2958151106676596E-3</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1.2966065544751399</v>
+      </c>
+      <c r="J12" s="17">
+        <v>8</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0.25994746912314998</v>
+      </c>
+      <c r="L12" s="17">
+        <v>4.2952734793459003E-3</v>
+      </c>
+      <c r="M12" s="17">
+        <v>1.2959258380072001</v>
+      </c>
+      <c r="N12" s="17">
+        <v>2</v>
+      </c>
+      <c r="O12" s="17">
+        <v>7.5178053399399397E-2</v>
+      </c>
+      <c r="P12" s="17">
+        <v>4.2944423700132803E-3</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>1.29659683655647</v>
+      </c>
+      <c r="R12" s="17">
+        <v>8</v>
+      </c>
+      <c r="S12" s="17">
+        <v>0.29644748464274701</v>
+      </c>
+      <c r="T12" s="17">
+        <v>4.2963626227652202E-3</v>
+      </c>
+      <c r="U12" s="17">
+        <v>1.29670506330794</v>
+      </c>
+      <c r="V12" s="17">
+        <v>0</v>
+      </c>
+      <c r="W12" s="20">
+        <v>9.0249390855779907E-6</v>
+      </c>
+      <c r="X12" s="17">
+        <v>1.1282797987059901E-3</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>1.12275492954297</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="20">
+        <v>4.6650699704925298E-7</v>
+      </c>
+      <c r="AB12" s="17">
+        <v>1.06700637986631E-3</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>1.16703804588389</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>4.44628447187983E-2</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>1.65631179908839E-3</v>
+      </c>
+      <c r="AG12" s="17">
+        <v>1.1274278410038401</v>
+      </c>
+      <c r="AH12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="20">
+        <v>7.17206479577605E-34</v>
+      </c>
+      <c r="AJ12" s="17">
+        <v>7.6098082615139303E-4</v>
+      </c>
+      <c r="AK12" s="17">
+        <v>1.37956863979639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" s="22" customFormat="1">
+      <c r="A13" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B13" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C13" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>9</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.39301062887353599</v>
+      </c>
+      <c r="H13" s="21">
+        <v>5.2618098581507303E-3</v>
+      </c>
+      <c r="I13" s="21">
+        <v>2.0441321871184002</v>
+      </c>
+      <c r="J13" s="21">
+        <v>10</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0.63672619125087704</v>
+      </c>
+      <c r="L13" s="21">
+        <v>5.2553997227715796E-3</v>
+      </c>
+      <c r="M13" s="21">
+        <v>2.0383883998752399</v>
+      </c>
+      <c r="N13" s="21">
+        <v>9</v>
+      </c>
+      <c r="O13" s="21">
+        <v>0.38295394575915498</v>
+      </c>
+      <c r="P13" s="21">
+        <v>5.2304133962346499E-3</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>2.0503761413361801</v>
+      </c>
+      <c r="R13" s="21">
+        <v>10</v>
+      </c>
+      <c r="S13" s="21">
+        <v>0.522807273527366</v>
+      </c>
+      <c r="T13" s="21">
+        <v>5.2939730331889997E-3</v>
+      </c>
+      <c r="U13" s="21">
+        <v>2.03729253643677</v>
+      </c>
+      <c r="V13" s="21">
+        <v>2</v>
+      </c>
+      <c r="W13" s="21">
+        <v>0.13101259893853301</v>
+      </c>
+      <c r="X13" s="21">
+        <v>2.2854225337115902E-3</v>
+      </c>
+      <c r="Y13" s="21">
+        <v>2.0842300944708301</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="21">
+        <v>0.14779375651507401</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>2.210431737004E-3</v>
+      </c>
+      <c r="AC13" s="21">
+        <v>2.1254455420938601</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="21">
+        <v>5.4747671485430902E-2</v>
+      </c>
+      <c r="AF13" s="21">
+        <v>2.4124016428617801E-3</v>
+      </c>
+      <c r="AG13" s="21">
+        <v>1.89545062948998</v>
+      </c>
+      <c r="AH13" s="21">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="21">
+        <v>9.8116347181441799E-2</v>
+      </c>
+      <c r="AJ13" s="21">
+        <v>2.2621187670588102E-3</v>
+      </c>
+      <c r="AK13" s="21">
+        <v>2.31447264548936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" s="22" customFormat="1">
+      <c r="A14" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F14" s="21">
+        <v>7</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.201994784214309</v>
+      </c>
+      <c r="H14" s="21">
+        <v>5.1034187418012101E-3</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1.5435480219887601</v>
+      </c>
+      <c r="J14" s="21">
+        <v>7</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0.218073798301883</v>
+      </c>
+      <c r="L14" s="21">
+        <v>5.1068463491246103E-3</v>
+      </c>
+      <c r="M14" s="21">
+        <v>1.54303557148351</v>
+      </c>
+      <c r="N14" s="21">
+        <v>7</v>
+      </c>
+      <c r="O14" s="21">
+        <v>0.18689197034885199</v>
+      </c>
+      <c r="P14" s="21">
+        <v>5.0179561454123597E-3</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>1.5004392550430901</v>
+      </c>
+      <c r="R14" s="21">
+        <v>3</v>
+      </c>
+      <c r="S14" s="21">
+        <v>0.11867255163456999</v>
+      </c>
+      <c r="T14" s="21">
+        <v>5.1812022642293296E-3</v>
+      </c>
+      <c r="U14" s="21">
+        <v>1.5838680981433799</v>
+      </c>
+      <c r="V14" s="21">
+        <v>0</v>
+      </c>
+      <c r="W14" s="21">
+        <v>9.6777508097521398E-4</v>
+      </c>
+      <c r="X14" s="21">
+        <v>2.1596773719565299E-3</v>
+      </c>
+      <c r="Y14" s="21">
+        <v>2.17391295973525</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="23">
+        <v>5.2796596753039899E-6</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>2.1403764823668802E-3</v>
+      </c>
+      <c r="AC14" s="21">
+        <v>2.1836118276849801</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="23">
+        <v>1.6380855239023301E-25</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>2.1480548880106701E-3</v>
+      </c>
+      <c r="AG14" s="21">
+        <v>1.9807558325288199</v>
+      </c>
+      <c r="AH14" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="21">
+        <v>7.1273580920010099E-2</v>
+      </c>
+      <c r="AJ14" s="21">
+        <v>2.1785731138312999E-3</v>
+      </c>
+      <c r="AK14" s="21">
+        <v>2.3897706391874798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="22" customFormat="1">
+      <c r="A15" s="21">
+        <v>0</v>
+      </c>
+      <c r="B15" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F15" s="21">
+        <v>5</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.123891023640158</v>
+      </c>
+      <c r="H15" s="21">
+        <v>4.2653997163118696E-3</v>
+      </c>
+      <c r="I15" s="21">
+        <v>1.65020887435344</v>
+      </c>
+      <c r="J15" s="21">
+        <v>2</v>
+      </c>
+      <c r="K15" s="21">
+        <v>4.2031366370124099E-2</v>
+      </c>
+      <c r="L15" s="21">
+        <v>4.3076646949152496E-3</v>
+      </c>
+      <c r="M15" s="21">
+        <v>1.66733287912912</v>
+      </c>
+      <c r="N15" s="21">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
+        <v>2.5692897617396598E-3</v>
+      </c>
+      <c r="P15" s="21">
+        <v>3.6987933960975399E-3</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>1.71224152386877</v>
+      </c>
+      <c r="R15" s="21">
+        <v>5</v>
+      </c>
+      <c r="S15" s="21">
+        <v>0.14860992833141901</v>
+      </c>
+      <c r="T15" s="21">
+        <v>4.7764031730121803E-3</v>
+      </c>
+      <c r="U15" s="21">
+        <v>1.64211285960621</v>
+      </c>
+      <c r="V15" s="21">
+        <v>1</v>
+      </c>
+      <c r="W15" s="21">
+        <v>1.14649101186628E-2</v>
+      </c>
+      <c r="X15" s="21">
+        <v>2.3123478656764699E-3</v>
+      </c>
+      <c r="Y15" s="21">
+        <v>2.0138884981912901</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="21">
+        <v>1.84763296540012E-2</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>2.1677318117448098E-3</v>
+      </c>
+      <c r="AC15" s="21">
+        <v>2.1158249937478999</v>
+      </c>
+      <c r="AD15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="21">
+        <v>1.8683100775220202E-2</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>2.6012019933698799E-3</v>
+      </c>
+      <c r="AG15" s="21">
+        <v>1.79005440232607</v>
+      </c>
+      <c r="AH15" s="21">
+        <v>7</v>
+      </c>
+      <c r="AI15" s="21">
+        <v>0.28573855027760098</v>
+      </c>
+      <c r="AJ15" s="21">
+        <v>2.2444873943601499E-3</v>
+      </c>
+      <c r="AK15" s="21">
+        <v>2.3769005203359299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="22" customFormat="1">
+      <c r="A16" s="21">
+        <v>0</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F16" s="21">
+        <v>10</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0.41873116162435903</v>
+      </c>
+      <c r="H16" s="21">
+        <v>5.8654821293788496E-3</v>
+      </c>
+      <c r="I16" s="21">
+        <v>1.8182101409775999</v>
+      </c>
+      <c r="J16" s="21">
+        <v>7</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0.24360180048262201</v>
+      </c>
+      <c r="L16" s="21">
+        <v>5.8596332667755803E-3</v>
+      </c>
+      <c r="M16" s="21">
+        <v>1.8287566199101</v>
+      </c>
+      <c r="N16" s="21">
+        <v>9</v>
+      </c>
+      <c r="O16" s="21">
+        <v>0.34867420387440501</v>
+      </c>
+      <c r="P16" s="21">
+        <v>6.2414373118871999E-3</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>1.8926008233699401</v>
+      </c>
+      <c r="R16" s="21">
+        <v>7</v>
+      </c>
+      <c r="S16" s="21">
+        <v>0.14732151849637901</v>
+      </c>
+      <c r="T16" s="21">
+        <v>5.4831983219148697E-3</v>
+      </c>
+      <c r="U16" s="21">
+        <v>1.74463569493097</v>
+      </c>
+      <c r="V16" s="21">
+        <v>1</v>
+      </c>
+      <c r="W16" s="21">
+        <v>2.1710785743920599E-2</v>
+      </c>
+      <c r="X16" s="21">
+        <v>2.3276844099927802E-3</v>
+      </c>
+      <c r="Y16" s="21">
+        <v>1.9759147785773099</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="21">
+        <v>2.1922927486161501E-4</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>2.2821841511177199E-3</v>
+      </c>
+      <c r="AC16" s="21">
+        <v>1.9832049768717801</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE16" s="21">
+        <v>0.10529187969902799</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>2.2610669449060999E-3</v>
+      </c>
+      <c r="AG16" s="21">
+        <v>1.90459549519152</v>
+      </c>
+      <c r="AH16" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="21">
+        <v>8.0035898719220705E-2</v>
+      </c>
+      <c r="AJ16" s="21">
+        <v>2.4508139327667901E-3</v>
+      </c>
+      <c r="AK16" s="21">
+        <v>2.0270816808310999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" s="22" customFormat="1">
+      <c r="A17" s="21">
+        <v>0</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E17" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
+      <c r="G17" s="21">
+        <v>3.71789418765072E-2</v>
+      </c>
+      <c r="H17" s="21">
+        <v>5.1881693703281703E-3</v>
+      </c>
+      <c r="I17" s="21">
+        <v>1.5636557064795999</v>
+      </c>
+      <c r="J17" s="21">
+        <v>7</v>
+      </c>
+      <c r="K17" s="21">
+        <v>9.7237581440318299E-2</v>
+      </c>
+      <c r="L17" s="21">
+        <v>5.1840061999484204E-3</v>
+      </c>
+      <c r="M17" s="21">
+        <v>1.56325738968969</v>
+      </c>
+      <c r="N17" s="21">
+        <v>2</v>
+      </c>
+      <c r="O17" s="21">
+        <v>3.2664837462697403E-2</v>
+      </c>
+      <c r="P17" s="21">
+        <v>5.1589938476220096E-3</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>1.56445761827487</v>
+      </c>
+      <c r="R17" s="21">
+        <v>1</v>
+      </c>
+      <c r="S17" s="21">
+        <v>2.0354301890482498E-2</v>
+      </c>
+      <c r="T17" s="21">
+        <v>5.2228400189150998E-3</v>
+      </c>
+      <c r="U17" s="21">
+        <v>1.5642070214233399</v>
+      </c>
+      <c r="V17" s="21">
+        <v>0</v>
+      </c>
+      <c r="W17" s="21">
+        <v>1.16400241974532E-4</v>
+      </c>
+      <c r="X17" s="21">
+        <v>2.3623232364008099E-3</v>
+      </c>
+      <c r="Y17" s="21">
+        <v>1.8264229248024899</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>2.3779589273784402E-2</v>
+      </c>
+      <c r="AB17" s="21">
+        <v>2.2852986314749399E-3</v>
+      </c>
+      <c r="AC17" s="21">
+        <v>1.9173789948845399</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="23">
+        <v>7.6222940579455294E-5</v>
+      </c>
+      <c r="AF17" s="21">
+        <v>2.6417945574585401E-3</v>
+      </c>
+      <c r="AG17" s="21">
+        <v>1.5888235193962501</v>
+      </c>
+      <c r="AH17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="21">
+        <v>5.3840402874345602E-3</v>
+      </c>
+      <c r="AJ17" s="21">
+        <v>2.1766403208097898E-3</v>
+      </c>
+      <c r="AK17" s="21">
+        <v>2.4086515626832701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B18" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C18" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D18" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E18" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F18" s="17">
+        <v>8</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.62379312162903</v>
+      </c>
+      <c r="H18" s="17">
+        <v>6.3548307593416101E-3</v>
+      </c>
+      <c r="I18" s="17">
+        <v>2.0463508062392601</v>
+      </c>
+      <c r="J18" s="17">
+        <v>10</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0.33851163241827698</v>
+      </c>
+      <c r="L18" s="17">
+        <v>6.3606118529132699E-3</v>
+      </c>
+      <c r="M18" s="17">
+        <v>2.0490767352178398</v>
+      </c>
+      <c r="N18" s="17">
+        <v>10</v>
+      </c>
+      <c r="O18" s="17">
+        <v>0.53607148517741499</v>
+      </c>
+      <c r="P18" s="17">
+        <v>6.2407199500418E-3</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>2.0474608519288799</v>
+      </c>
+      <c r="R18" s="17">
+        <v>8</v>
+      </c>
+      <c r="S18" s="17">
+        <v>0.34208394157241601</v>
+      </c>
+      <c r="T18" s="17">
+        <v>6.4673736224512097E-3</v>
+      </c>
+      <c r="U18" s="17">
+        <v>2.05266402530494</v>
+      </c>
+      <c r="V18" s="17">
+        <v>7</v>
+      </c>
+      <c r="W18" s="17">
+        <v>0.14769364356915601</v>
+      </c>
+      <c r="X18" s="17">
+        <v>4.06020424527582E-3</v>
+      </c>
+      <c r="Y18" s="17">
+        <v>2.4642113136080699</v>
+      </c>
+      <c r="Z18" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="17">
+        <v>0.165577363121032</v>
+      </c>
+      <c r="AB18" s="17">
+        <v>3.9891483914034302E-3</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>2.5279526356353301</v>
+      </c>
+      <c r="AD18" s="17">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="17">
+        <v>0.31788134075473101</v>
+      </c>
+      <c r="AF18" s="17">
+        <v>3.9778863413257298E-3</v>
+      </c>
+      <c r="AG18" s="17">
+        <v>2.24295633263488</v>
+      </c>
+      <c r="AH18" s="17">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="17">
+        <v>5.1979884628169798E-2</v>
+      </c>
+      <c r="AJ18" s="17">
+        <v>4.1983557035030804E-3</v>
+      </c>
+      <c r="AK18" s="17">
+        <v>2.6628580762117902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F19" s="17">
+        <v>8</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.145201685667666</v>
+      </c>
+      <c r="H19" s="17">
+        <v>5.8980608841688598E-3</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1.7798001129220899</v>
+      </c>
+      <c r="J19" s="17">
+        <v>9</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0.46664804461270298</v>
+      </c>
+      <c r="L19" s="17">
+        <v>5.9351714253620697E-3</v>
+      </c>
+      <c r="M19" s="17">
+        <v>1.78752375816313</v>
+      </c>
+      <c r="N19" s="17">
+        <v>6</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0.24866818293961701</v>
+      </c>
+      <c r="P19" s="17">
+        <v>5.6874338310663004E-3</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>1.69408801544802</v>
+      </c>
+      <c r="R19" s="17">
+        <v>4</v>
+      </c>
+      <c r="S19" s="17">
+        <v>0.158022840070664</v>
+      </c>
+      <c r="T19" s="17">
+        <v>6.0905338610784E-3</v>
+      </c>
+      <c r="U19" s="17">
+        <v>1.86017372490287</v>
+      </c>
+      <c r="V19" s="17">
+        <v>4</v>
+      </c>
+      <c r="W19" s="17">
+        <v>6.4356815958951194E-2</v>
+      </c>
+      <c r="X19" s="17">
+        <v>3.9567025177878502E-3</v>
+      </c>
+      <c r="Y19" s="17">
+        <v>2.6560295163047201</v>
+      </c>
+      <c r="Z19" s="17">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="17">
+        <v>0.107426213306758</v>
+      </c>
+      <c r="AB19" s="17">
+        <v>3.9245164066160796E-3</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>2.6943264817904802</v>
+      </c>
+      <c r="AD19" s="17">
+        <v>7</v>
+      </c>
+      <c r="AE19" s="17">
+        <v>0.24498884348959901</v>
+      </c>
+      <c r="AF19" s="17">
+        <v>3.7812739976503E-3</v>
+      </c>
+      <c r="AG19" s="17">
+        <v>2.5108586832644901</v>
+      </c>
+      <c r="AH19" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="17">
+        <v>1.06053019054467E-2</v>
+      </c>
+      <c r="AJ19" s="17">
+        <v>4.1275720952462496E-3</v>
+      </c>
+      <c r="AK19" s="17">
+        <v>2.7952755192832299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="17">
+        <v>0</v>
+      </c>
+      <c r="B20" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.11813589518303701</v>
+      </c>
+      <c r="H20" s="17">
+        <v>5.4139340259414404E-3</v>
+      </c>
+      <c r="I20" s="17">
+        <v>2.01062392019645</v>
+      </c>
+      <c r="J20" s="17">
+        <v>9</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0.19998092981360199</v>
+      </c>
+      <c r="L20" s="17">
+        <v>5.4436223366124701E-3</v>
+      </c>
+      <c r="M20" s="17">
+        <v>2.0320427036040201</v>
+      </c>
+      <c r="N20" s="17">
+        <v>3</v>
+      </c>
+      <c r="O20" s="17">
+        <v>8.6999873711622502E-2</v>
+      </c>
+      <c r="P20" s="17">
+        <v>4.8551248260153201E-3</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>2.1138455564843501</v>
+      </c>
+      <c r="R20" s="17">
+        <v>4</v>
+      </c>
+      <c r="S20" s="17">
+        <v>0.135884106989661</v>
+      </c>
+      <c r="T20" s="17">
+        <v>5.9171021485560299E-3</v>
+      </c>
+      <c r="U20" s="17">
+        <v>1.9776566844155501</v>
+      </c>
+      <c r="V20" s="17">
+        <v>6</v>
+      </c>
+      <c r="W20" s="17">
+        <v>0.216460572263314</v>
+      </c>
+      <c r="X20" s="17">
+        <v>4.0506422945540202E-3</v>
+      </c>
+      <c r="Y20" s="17">
+        <v>2.4654056402288398</v>
+      </c>
+      <c r="Z20" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="17">
+        <v>0.17556305818689799</v>
+      </c>
+      <c r="AB20" s="17">
+        <v>3.9553213462997401E-3</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>2.52904566240109</v>
+      </c>
+      <c r="AD20" s="17">
+        <v>8</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>0.35121957273083299</v>
+      </c>
+      <c r="AF20" s="17">
+        <v>4.0552950066064502E-3</v>
+      </c>
+      <c r="AG20" s="17">
+        <v>2.1937487951183599</v>
+      </c>
+      <c r="AH20" s="17">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="17">
+        <v>6.8396082938523506E-2</v>
+      </c>
+      <c r="AJ20" s="17">
+        <v>4.1663496569141001E-3</v>
+      </c>
+      <c r="AK20" s="17">
+        <v>2.7165002181063498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="17">
+        <v>0</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="17">
+        <v>10</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.44789261773822497</v>
+      </c>
+      <c r="H21" s="17">
+        <v>6.9455977060889603E-3</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1.940749395843</v>
+      </c>
+      <c r="J21" s="17">
+        <v>10</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0.44887697140117599</v>
+      </c>
+      <c r="L21" s="17">
+        <v>6.9338171159386199E-3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>1.9435192068234499</v>
+      </c>
+      <c r="N21" s="17">
+        <v>8</v>
+      </c>
+      <c r="O21" s="17">
+        <v>0.45809472902732801</v>
+      </c>
+      <c r="P21" s="17">
+        <v>7.1816099224000897E-3</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>1.96447812898661</v>
+      </c>
+      <c r="R21" s="17">
+        <v>10</v>
+      </c>
+      <c r="S21" s="17">
+        <v>0.440634162125073</v>
+      </c>
+      <c r="T21" s="17">
+        <v>6.7163067955187802E-3</v>
+      </c>
+      <c r="U21" s="17">
+        <v>1.9232435903219101</v>
+      </c>
+      <c r="V21" s="17">
+        <v>5</v>
+      </c>
+      <c r="W21" s="17">
+        <v>0.17407333909575601</v>
+      </c>
+      <c r="X21" s="17">
+        <v>4.09576582713643E-3</v>
+      </c>
+      <c r="Y21" s="17">
+        <v>2.37808095186295</v>
+      </c>
+      <c r="Z21" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="17">
+        <v>0.17962015676436299</v>
+      </c>
+      <c r="AB21" s="17">
+        <v>4.0667437952967601E-3</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>2.4236235398133301</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>7</v>
+      </c>
+      <c r="AE21" s="17">
+        <v>0.30271209026483498</v>
+      </c>
+      <c r="AF21" s="17">
+        <v>3.89292440643523E-3</v>
+      </c>
+      <c r="AG21" s="17">
+        <v>2.2524472217659302</v>
+      </c>
+      <c r="AH21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="17">
+        <v>1.8356241639146901E-2</v>
+      </c>
+      <c r="AJ21" s="17">
+        <v>4.3237877326853602E-3</v>
+      </c>
+      <c r="AK21" s="17">
+        <v>2.47122128506799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="17">
+        <v>0</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E22" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="17">
+        <v>7</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0.318673127479142</v>
+      </c>
+      <c r="H22" s="17">
+        <v>6.0013425813128197E-3</v>
+      </c>
+      <c r="I22" s="17">
+        <v>2.0407930809752002</v>
+      </c>
+      <c r="J22" s="17">
+        <v>7</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0.29305974850618</v>
+      </c>
+      <c r="L22" s="17">
+        <v>6.0217404371713298E-3</v>
+      </c>
+      <c r="M22" s="17">
+        <v>2.0396800741805801</v>
+      </c>
+      <c r="N22" s="17">
+        <v>5</v>
+      </c>
+      <c r="O22" s="17">
+        <v>0.15729936843404599</v>
+      </c>
+      <c r="P22" s="17">
+        <v>5.8919901863781999E-3</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>2.0706403188713298</v>
+      </c>
+      <c r="R22" s="17">
+        <v>7</v>
+      </c>
+      <c r="S22" s="17">
+        <v>0.197007566602145</v>
+      </c>
+      <c r="T22" s="17">
+        <v>6.1086314646837904E-3</v>
+      </c>
+      <c r="U22" s="17">
+        <v>2.0201423380530801</v>
+      </c>
+      <c r="V22" s="17">
+        <v>2</v>
+      </c>
+      <c r="W22" s="17">
+        <v>0.12566308349916</v>
+      </c>
+      <c r="X22" s="17">
+        <v>4.0627186906786799E-3</v>
+      </c>
+      <c r="Y22" s="17">
+        <v>2.4052802622132798</v>
+      </c>
+      <c r="Z22" s="17">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="17">
+        <v>0.19152769231306199</v>
+      </c>
+      <c r="AB22" s="17">
+        <v>4.0043748103908297E-3</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>2.49206478395821</v>
+      </c>
+      <c r="AD22" s="17">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="17">
+        <v>0.344290530724011</v>
+      </c>
+      <c r="AF22" s="17">
+        <v>4.05252507598568E-3</v>
+      </c>
+      <c r="AG22" s="17">
+        <v>2.08661108864947</v>
+      </c>
+      <c r="AH22" s="17">
+        <v>4</v>
+      </c>
+      <c r="AI22" s="17">
+        <v>9.0640953380294806E-2</v>
+      </c>
+      <c r="AJ22" s="17">
+        <v>4.1209962970497503E-3</v>
+      </c>
+      <c r="AK22" s="17">
+        <v>2.7790309512527802</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:AK1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>